--- a/data/curated/bionova_labs_vendas_curated.xlsx
+++ b/data/curated/bionova_labs_vendas_curated.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\@ESTUDOS FRED\DNC\Criando Primeiro Portifolio\Diretorio do GitHub\data\curated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B53FFCEF-0276-431E-8B79-264297E17FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5B913-2B04-4A51-BC05-765425B6D231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bionova_labs_vendas_curated" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="42">
   <si>
     <t>data</t>
   </si>
@@ -131,13 +144,34 @@
   <si>
     <t>Prazo</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de margem_abs</t>
+  </si>
+  <si>
+    <t>Média de margem_pct</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Soma de unidades_vendidas</t>
+  </si>
+  <si>
+    <t>Soma de receita</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -616,13 +650,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -668,7 +707,50 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -679,6 +761,8307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Frederico Augusto de Paula Amorin" refreshedDate="46041.639084722221" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="500" xr:uid="{F5FDE045-6DAF-4A6E-8C3C-6523D7483B06}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="tbl_vendas_bionova"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-02-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="produto" numFmtId="49">
+      <sharedItems count="5">
+        <s v="Neurovit-X"/>
+        <s v="ImmuPro"/>
+        <s v="NexoMax"/>
+        <s v="Lifexin"/>
+        <s v="Cardiolum"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="canal" numFmtId="49">
+      <sharedItems count="4">
+        <s v="Farmácia"/>
+        <s v="Clínica"/>
+        <s v="Distribuidor"/>
+        <s v="Hospital"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="regiao" numFmtId="49">
+      <sharedItems count="5">
+        <s v="SP"/>
+        <s v="MG"/>
+        <s v="RS"/>
+        <s v="BA"/>
+        <s v="RJ"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="unidades_vendidas" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+    </cacheField>
+    <cacheField name="preco_unitario" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="78" maxValue="135"/>
+    </cacheField>
+    <cacheField name="receita" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="39960"/>
+    </cacheField>
+    <cacheField name="custo_unitario" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50.7" maxValue="87.75"/>
+    </cacheField>
+    <cacheField name="margem_abs" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.3" maxValue="47.25" count="5">
+        <n v="33.25"/>
+        <n v="47.25"/>
+        <n v="29.75"/>
+        <n v="27.3"/>
+        <n v="39.200000000000003"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="margem_pct" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.35" maxValue="0.35"/>
+    </cacheField>
+    <cacheField name="concorrente_principal" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="status" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="motivo_loss" numFmtId="49">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="elasticidade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="-1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="500">
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="236"/>
+    <n v="95"/>
+    <n v="22420"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="158"/>
+    <n v="135"/>
+    <n v="21330"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="56"/>
+    <n v="85"/>
+    <n v="4760"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="78"/>
+    <n v="2262"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="143"/>
+    <n v="95"/>
+    <n v="13585"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="110"/>
+    <n v="112"/>
+    <n v="12320"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="202"/>
+    <n v="135"/>
+    <n v="27270"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="270"/>
+    <n v="85"/>
+    <n v="22950"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="29"/>
+    <n v="78"/>
+    <n v="2262"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="122"/>
+    <n v="135"/>
+    <n v="16470"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="121"/>
+    <n v="78"/>
+    <n v="9438"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="73"/>
+    <n v="85"/>
+    <n v="6205"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="65"/>
+    <n v="112"/>
+    <n v="7280"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="139"/>
+    <n v="85"/>
+    <n v="11815"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="205"/>
+    <n v="95"/>
+    <n v="19475"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="196"/>
+    <n v="78"/>
+    <n v="15288"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="146"/>
+    <n v="78"/>
+    <n v="11388"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="255"/>
+    <n v="78"/>
+    <n v="19890"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="188"/>
+    <n v="85"/>
+    <n v="15980"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="112"/>
+    <n v="5712"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="189"/>
+    <n v="78"/>
+    <n v="14742"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="80"/>
+    <n v="85"/>
+    <n v="6800"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="95"/>
+    <n v="8550"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="78"/>
+    <n v="9360"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="106"/>
+    <n v="78"/>
+    <n v="8268"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="42"/>
+    <n v="112"/>
+    <n v="4704"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="244"/>
+    <n v="85"/>
+    <n v="20740"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="204"/>
+    <n v="112"/>
+    <n v="22848"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="187"/>
+    <n v="95"/>
+    <n v="17765"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="112"/>
+    <n v="4480"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="262"/>
+    <n v="135"/>
+    <n v="35370"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="135"/>
+    <n v="2160"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="112"/>
+    <n v="7056"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="87"/>
+    <n v="112"/>
+    <n v="9744"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="277"/>
+    <n v="135"/>
+    <n v="37395"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="85"/>
+    <n v="340"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="112"/>
+    <n v="4816"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="135"/>
+    <n v="0"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Perdida"/>
+    <s v="Serviço"/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="78"/>
+    <n v="3978"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="25"/>
+    <n v="135"/>
+    <n v="3375"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="135"/>
+    <n v="4860"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="158"/>
+    <n v="85"/>
+    <n v="13430"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="262"/>
+    <n v="112"/>
+    <n v="29344"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="186"/>
+    <n v="112"/>
+    <n v="20832"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="95"/>
+    <n v="19000"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="258"/>
+    <n v="95"/>
+    <n v="24510"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="126"/>
+    <n v="85"/>
+    <n v="10710"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="183"/>
+    <n v="95"/>
+    <n v="17385"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="126"/>
+    <n v="112"/>
+    <n v="14112"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="109"/>
+    <n v="78"/>
+    <n v="8502"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="245"/>
+    <n v="112"/>
+    <n v="27440"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="78"/>
+    <n v="8190"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="95"/>
+    <n v="3040"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="112"/>
+    <n v="3024"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="209"/>
+    <n v="135"/>
+    <n v="28215"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="233"/>
+    <n v="135"/>
+    <n v="31455"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="53"/>
+    <n v="112"/>
+    <n v="5936"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="61"/>
+    <n v="95"/>
+    <n v="5795"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="78"/>
+    <n v="624"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="285"/>
+    <n v="78"/>
+    <n v="22230"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="82"/>
+    <n v="112"/>
+    <n v="9184"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="69"/>
+    <n v="112"/>
+    <n v="7728"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="298"/>
+    <n v="78"/>
+    <n v="23244"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="266"/>
+    <n v="95"/>
+    <n v="25270"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="188"/>
+    <n v="95"/>
+    <n v="17860"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="231"/>
+    <n v="135"/>
+    <n v="31185"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="214"/>
+    <n v="95"/>
+    <n v="20330"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="272"/>
+    <n v="85"/>
+    <n v="23120"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="85"/>
+    <n v="9095"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="170"/>
+    <n v="112"/>
+    <n v="19040"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="279"/>
+    <n v="85"/>
+    <n v="23715"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="135"/>
+    <n v="10665"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="297"/>
+    <n v="78"/>
+    <n v="23166"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="208"/>
+    <n v="135"/>
+    <n v="28080"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="225"/>
+    <n v="112"/>
+    <n v="25200"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="294"/>
+    <n v="95"/>
+    <n v="27930"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="83"/>
+    <n v="85"/>
+    <n v="7055"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="135"/>
+    <n v="85"/>
+    <n v="11475"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="188"/>
+    <n v="95"/>
+    <n v="17860"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="19"/>
+    <n v="112"/>
+    <n v="2128"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="158"/>
+    <n v="95"/>
+    <n v="15010"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="216"/>
+    <n v="135"/>
+    <n v="29160"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="24"/>
+    <n v="112"/>
+    <n v="2688"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="86"/>
+    <n v="112"/>
+    <n v="9632"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="255"/>
+    <n v="112"/>
+    <n v="28560"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="140"/>
+    <n v="112"/>
+    <n v="15680"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="112"/>
+    <n v="78"/>
+    <n v="8736"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="85"/>
+    <n v="4335"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="113"/>
+    <n v="85"/>
+    <n v="9605"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="269"/>
+    <n v="135"/>
+    <n v="36315"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="233"/>
+    <n v="85"/>
+    <n v="19805"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="135"/>
+    <n v="1215"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="85"/>
+    <n v="6290"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="56"/>
+    <n v="135"/>
+    <n v="7560"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="112"/>
+    <n v="2240"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="133"/>
+    <n v="78"/>
+    <n v="10374"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="201"/>
+    <n v="112"/>
+    <n v="22512"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="128"/>
+    <n v="112"/>
+    <n v="14336"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="112"/>
+    <n v="3024"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="95"/>
+    <n v="1235"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="139"/>
+    <n v="85"/>
+    <n v="11815"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="95"/>
+    <n v="8265"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="165"/>
+    <n v="95"/>
+    <n v="15675"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="225"/>
+    <n v="85"/>
+    <n v="19125"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="27"/>
+    <n v="135"/>
+    <n v="3645"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="191"/>
+    <n v="85"/>
+    <n v="16235"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="284"/>
+    <n v="112"/>
+    <n v="31808"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="78"/>
+    <n v="468"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="291"/>
+    <n v="78"/>
+    <n v="22698"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="183"/>
+    <n v="78"/>
+    <n v="14274"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="53"/>
+    <n v="85"/>
+    <n v="4505"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="95"/>
+    <n v="6080"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="174"/>
+    <n v="85"/>
+    <n v="14790"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="55"/>
+    <n v="95"/>
+    <n v="5225"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="255"/>
+    <n v="112"/>
+    <n v="28560"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="264"/>
+    <n v="85"/>
+    <n v="22440"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="234"/>
+    <n v="85"/>
+    <n v="19890"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="125"/>
+    <n v="85"/>
+    <n v="10625"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="294"/>
+    <n v="78"/>
+    <n v="22932"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="112"/>
+    <n v="672"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="85"/>
+    <n v="595"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="92"/>
+    <n v="112"/>
+    <n v="10304"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="269"/>
+    <n v="135"/>
+    <n v="36315"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="220"/>
+    <n v="78"/>
+    <n v="17160"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="95"/>
+    <n v="8550"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="118"/>
+    <n v="112"/>
+    <n v="13216"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="51"/>
+    <n v="85"/>
+    <n v="4335"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="184"/>
+    <n v="135"/>
+    <n v="24840"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="275"/>
+    <n v="112"/>
+    <n v="30800"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="195"/>
+    <n v="112"/>
+    <n v="21840"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="275"/>
+    <n v="85"/>
+    <n v="23375"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="244"/>
+    <n v="85"/>
+    <n v="20740"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="291"/>
+    <n v="95"/>
+    <n v="27645"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="118"/>
+    <n v="78"/>
+    <n v="9204"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="292"/>
+    <n v="95"/>
+    <n v="27740"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="220"/>
+    <n v="78"/>
+    <n v="17160"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="174"/>
+    <n v="78"/>
+    <n v="13572"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="11"/>
+    <n v="112"/>
+    <n v="1232"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="62"/>
+    <n v="95"/>
+    <n v="5890"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18"/>
+    <n v="78"/>
+    <n v="1404"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="207"/>
+    <n v="135"/>
+    <n v="27945"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="191"/>
+    <n v="95"/>
+    <n v="18145"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="43"/>
+    <n v="85"/>
+    <n v="3655"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="263"/>
+    <n v="85"/>
+    <n v="22355"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="118"/>
+    <n v="85"/>
+    <n v="10030"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="135"/>
+    <n v="2295"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="24"/>
+    <n v="95"/>
+    <n v="2280"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="128"/>
+    <n v="78"/>
+    <n v="9984"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="263"/>
+    <n v="112"/>
+    <n v="29456"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="133"/>
+    <n v="135"/>
+    <n v="17955"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="147"/>
+    <n v="85"/>
+    <n v="12495"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="78"/>
+    <n v="1014"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="85"/>
+    <n v="4675"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="94"/>
+    <n v="112"/>
+    <n v="10528"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="278"/>
+    <n v="135"/>
+    <n v="37530"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="115"/>
+    <n v="95"/>
+    <n v="10925"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="237"/>
+    <n v="112"/>
+    <n v="26544"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="150"/>
+    <n v="135"/>
+    <n v="20250"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="69"/>
+    <n v="112"/>
+    <n v="7728"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="85"/>
+    <n v="255"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="22"/>
+    <n v="85"/>
+    <n v="1870"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="127"/>
+    <n v="85"/>
+    <n v="10795"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="212"/>
+    <n v="95"/>
+    <n v="20140"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="135"/>
+    <n v="13230"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="133"/>
+    <n v="95"/>
+    <n v="12635"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="183"/>
+    <n v="78"/>
+    <n v="14274"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="135"/>
+    <n v="945"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="163"/>
+    <n v="85"/>
+    <n v="13855"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="217"/>
+    <n v="85"/>
+    <n v="18445"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="85"/>
+    <n v="1360"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="84"/>
+    <n v="112"/>
+    <n v="9408"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="164"/>
+    <n v="112"/>
+    <n v="18368"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="78"/>
+    <n v="1092"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="177"/>
+    <n v="95"/>
+    <n v="16815"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="272"/>
+    <n v="78"/>
+    <n v="21216"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="113"/>
+    <n v="78"/>
+    <n v="8814"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="69"/>
+    <n v="85"/>
+    <n v="5865"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="181"/>
+    <n v="85"/>
+    <n v="15385"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="279"/>
+    <n v="78"/>
+    <n v="21762"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="172"/>
+    <n v="85"/>
+    <n v="14620"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="65"/>
+    <n v="85"/>
+    <n v="5525"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="135"/>
+    <n v="11745"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="108"/>
+    <n v="112"/>
+    <n v="12096"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="238"/>
+    <n v="95"/>
+    <n v="22610"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="135"/>
+    <n v="85"/>
+    <n v="11475"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="258"/>
+    <n v="95"/>
+    <n v="24510"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="85"/>
+    <n v="4675"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="148"/>
+    <n v="112"/>
+    <n v="16576"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="299"/>
+    <n v="85"/>
+    <n v="25415"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="135"/>
+    <n v="540"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="197"/>
+    <n v="95"/>
+    <n v="18715"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="98"/>
+    <n v="112"/>
+    <n v="10976"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="245"/>
+    <n v="78"/>
+    <n v="19110"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="148"/>
+    <n v="85"/>
+    <n v="12580"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="272"/>
+    <n v="95"/>
+    <n v="25840"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="112"/>
+    <n v="7952"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="112"/>
+    <n v="560"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="231"/>
+    <n v="95"/>
+    <n v="21945"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="112"/>
+    <n v="7056"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="54"/>
+    <n v="112"/>
+    <n v="6048"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="85"/>
+    <n v="6035"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="214"/>
+    <n v="85"/>
+    <n v="18190"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="78"/>
+    <n v="780"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="293"/>
+    <n v="95"/>
+    <n v="27835"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="95"/>
+    <n v="1615"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="239"/>
+    <n v="78"/>
+    <n v="18642"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="108"/>
+    <n v="85"/>
+    <n v="9180"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="113"/>
+    <n v="95"/>
+    <n v="10735"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="95"/>
+    <n v="7125"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="41"/>
+    <n v="85"/>
+    <n v="3485"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="99"/>
+    <n v="85"/>
+    <n v="8415"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="112"/>
+    <n v="10752"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="123"/>
+    <n v="85"/>
+    <n v="10455"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="21"/>
+    <n v="112"/>
+    <n v="2352"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="95"/>
+    <n v="28500"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="95"/>
+    <n v="5035"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="171"/>
+    <n v="112"/>
+    <n v="19152"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="112"/>
+    <n v="6384"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="105"/>
+    <n v="78"/>
+    <n v="8190"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="197"/>
+    <n v="135"/>
+    <n v="26595"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="78"/>
+    <n v="1560"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="216"/>
+    <n v="112"/>
+    <n v="24192"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="260"/>
+    <n v="95"/>
+    <n v="24700"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="95"/>
+    <n v="23750"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="228"/>
+    <n v="135"/>
+    <n v="30780"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="102"/>
+    <n v="95"/>
+    <n v="9690"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="226"/>
+    <n v="78"/>
+    <n v="17628"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="217"/>
+    <n v="78"/>
+    <n v="16926"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="122"/>
+    <n v="95"/>
+    <n v="11590"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="95"/>
+    <n v="950"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="140"/>
+    <n v="95"/>
+    <n v="13300"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="212"/>
+    <n v="135"/>
+    <n v="28620"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="262"/>
+    <n v="112"/>
+    <n v="29344"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="85"/>
+    <n v="6460"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="187"/>
+    <n v="112"/>
+    <n v="20944"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="256"/>
+    <n v="85"/>
+    <n v="21760"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="159"/>
+    <n v="112"/>
+    <n v="17808"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="255"/>
+    <n v="95"/>
+    <n v="24225"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="85"/>
+    <n v="5355"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="89"/>
+    <n v="112"/>
+    <n v="9968"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="85"/>
+    <n v="1785"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="152"/>
+    <n v="95"/>
+    <n v="14440"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="258"/>
+    <n v="85"/>
+    <n v="21930"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="95"/>
+    <n v="112"/>
+    <n v="10640"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="167"/>
+    <n v="135"/>
+    <n v="22545"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="195"/>
+    <n v="135"/>
+    <n v="26325"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="88"/>
+    <n v="135"/>
+    <n v="11880"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="105"/>
+    <n v="112"/>
+    <n v="11760"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="130"/>
+    <n v="112"/>
+    <n v="14560"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="218"/>
+    <n v="95"/>
+    <n v="20710"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="94"/>
+    <n v="78"/>
+    <n v="7332"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="149"/>
+    <n v="112"/>
+    <n v="16688"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="251"/>
+    <n v="85"/>
+    <n v="21335"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="30"/>
+    <n v="85"/>
+    <n v="2550"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="295"/>
+    <n v="95"/>
+    <n v="28025"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="104"/>
+    <n v="85"/>
+    <n v="8840"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="34"/>
+    <n v="78"/>
+    <n v="2652"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="108"/>
+    <n v="85"/>
+    <n v="9180"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="78"/>
+    <n v="18096"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="167"/>
+    <n v="78"/>
+    <n v="13026"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="229"/>
+    <n v="78"/>
+    <n v="17862"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="60"/>
+    <n v="95"/>
+    <n v="5700"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="286"/>
+    <n v="95"/>
+    <n v="27170"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="110"/>
+    <n v="85"/>
+    <n v="9350"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="51"/>
+    <n v="78"/>
+    <n v="3978"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="48"/>
+    <n v="95"/>
+    <n v="4560"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="129"/>
+    <n v="85"/>
+    <n v="10965"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="44"/>
+    <n v="135"/>
+    <n v="5940"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="261"/>
+    <n v="85"/>
+    <n v="22185"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="87"/>
+    <n v="135"/>
+    <n v="11745"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="165"/>
+    <n v="85"/>
+    <n v="14025"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="298"/>
+    <n v="112"/>
+    <n v="33376"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="102"/>
+    <n v="78"/>
+    <n v="7956"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="226"/>
+    <n v="135"/>
+    <n v="30510"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="58"/>
+    <n v="95"/>
+    <n v="5510"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="221"/>
+    <n v="112"/>
+    <n v="24752"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="112"/>
+    <n v="78"/>
+    <n v="8736"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="253"/>
+    <n v="112"/>
+    <n v="28336"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="85"/>
+    <n v="2295"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="199"/>
+    <n v="78"/>
+    <n v="15522"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="59"/>
+    <n v="135"/>
+    <n v="7965"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="47"/>
+    <n v="135"/>
+    <n v="6345"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="149"/>
+    <n v="112"/>
+    <n v="16688"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="237"/>
+    <n v="112"/>
+    <n v="26544"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="265"/>
+    <n v="112"/>
+    <n v="29680"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="85"/>
+    <n v="1445"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="212"/>
+    <n v="135"/>
+    <n v="28620"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="199"/>
+    <n v="135"/>
+    <n v="26865"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="95"/>
+    <n v="950"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="47"/>
+    <n v="112"/>
+    <n v="5264"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="164"/>
+    <n v="112"/>
+    <n v="18368"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="31"/>
+    <n v="112"/>
+    <n v="3472"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="272"/>
+    <n v="85"/>
+    <n v="23120"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="135"/>
+    <n v="6075"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="141"/>
+    <n v="85"/>
+    <n v="11985"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="224"/>
+    <n v="112"/>
+    <n v="25088"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="37"/>
+    <n v="135"/>
+    <n v="4995"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="120"/>
+    <n v="135"/>
+    <n v="16200"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="93"/>
+    <n v="135"/>
+    <n v="12555"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="185"/>
+    <n v="85"/>
+    <n v="15725"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="142"/>
+    <n v="112"/>
+    <n v="15904"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="168"/>
+    <n v="95"/>
+    <n v="15960"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="104"/>
+    <n v="95"/>
+    <n v="9880"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="253"/>
+    <n v="78"/>
+    <n v="19734"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="112"/>
+    <n v="224"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="297"/>
+    <n v="95"/>
+    <n v="28215"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="59"/>
+    <n v="78"/>
+    <n v="4602"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="110"/>
+    <n v="78"/>
+    <n v="8580"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="206"/>
+    <n v="78"/>
+    <n v="16068"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="133"/>
+    <n v="95"/>
+    <n v="12635"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="166"/>
+    <n v="85"/>
+    <n v="14110"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="95"/>
+    <n v="3040"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="112"/>
+    <n v="7616"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="114"/>
+    <n v="85"/>
+    <n v="9690"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="272"/>
+    <n v="95"/>
+    <n v="25840"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="95"/>
+    <n v="5035"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="236"/>
+    <n v="112"/>
+    <n v="26432"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="135"/>
+    <n v="6750"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="100"/>
+    <n v="78"/>
+    <n v="7800"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="257"/>
+    <n v="85"/>
+    <n v="21845"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="135"/>
+    <n v="24165"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="264"/>
+    <n v="85"/>
+    <n v="22440"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="78"/>
+    <n v="2106"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="235"/>
+    <n v="112"/>
+    <n v="26320"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="169"/>
+    <n v="85"/>
+    <n v="14365"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="291"/>
+    <n v="78"/>
+    <n v="22698"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="249"/>
+    <n v="78"/>
+    <n v="19422"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="220"/>
+    <n v="78"/>
+    <n v="17160"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="40"/>
+    <n v="85"/>
+    <n v="3400"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="53"/>
+    <n v="85"/>
+    <n v="4505"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="112"/>
+    <n v="11984"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="74"/>
+    <n v="85"/>
+    <n v="6290"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="83"/>
+    <n v="112"/>
+    <n v="9296"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="142"/>
+    <n v="135"/>
+    <n v="19170"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="78"/>
+    <n v="7020"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="125"/>
+    <n v="95"/>
+    <n v="11875"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="264"/>
+    <n v="135"/>
+    <n v="35640"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="95"/>
+    <n v="3990"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="78"/>
+    <n v="0"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Perdida"/>
+    <s v="Prazo"/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="160"/>
+    <n v="135"/>
+    <n v="21600"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="203"/>
+    <n v="112"/>
+    <n v="22736"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="189"/>
+    <n v="85"/>
+    <n v="16065"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="88"/>
+    <n v="78"/>
+    <n v="6864"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="149"/>
+    <n v="135"/>
+    <n v="20115"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="132"/>
+    <n v="95"/>
+    <n v="12540"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="92"/>
+    <n v="95"/>
+    <n v="8740"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="230"/>
+    <n v="135"/>
+    <n v="31050"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="288"/>
+    <n v="95"/>
+    <n v="27360"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="270"/>
+    <n v="95"/>
+    <n v="25650"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="85"/>
+    <n v="10200"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="173"/>
+    <n v="78"/>
+    <n v="13494"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="85"/>
+    <n v="2975"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="66"/>
+    <n v="135"/>
+    <n v="8910"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="169"/>
+    <n v="85"/>
+    <n v="14365"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="14"/>
+    <n v="112"/>
+    <n v="1568"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="85"/>
+    <n v="595"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="146"/>
+    <n v="135"/>
+    <n v="19710"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="21"/>
+    <n v="85"/>
+    <n v="1785"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="54"/>
+    <n v="135"/>
+    <n v="7290"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="216"/>
+    <n v="135"/>
+    <n v="29160"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="78"/>
+    <n v="7644"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="198"/>
+    <n v="85"/>
+    <n v="16830"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="74"/>
+    <n v="135"/>
+    <n v="9990"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="286"/>
+    <n v="135"/>
+    <n v="38610"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="112"/>
+    <n v="7840"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="35"/>
+    <n v="135"/>
+    <n v="4725"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="101"/>
+    <n v="112"/>
+    <n v="11312"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="282"/>
+    <n v="85"/>
+    <n v="23970"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="138"/>
+    <n v="135"/>
+    <n v="18630"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="209"/>
+    <n v="135"/>
+    <n v="28215"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="61"/>
+    <n v="112"/>
+    <n v="6832"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="112"/>
+    <n v="15008"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="110"/>
+    <n v="78"/>
+    <n v="8580"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="78"/>
+    <n v="1326"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="59"/>
+    <n v="95"/>
+    <n v="5605"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="189"/>
+    <n v="135"/>
+    <n v="25515"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="213"/>
+    <n v="112"/>
+    <n v="23856"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="183"/>
+    <n v="112"/>
+    <n v="20496"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="232"/>
+    <n v="112"/>
+    <n v="25984"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="135"/>
+    <n v="5265"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="93"/>
+    <n v="112"/>
+    <n v="10416"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="165"/>
+    <n v="78"/>
+    <n v="12870"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="228"/>
+    <n v="112"/>
+    <n v="25536"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="78"/>
+    <n v="4056"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="85"/>
+    <n v="1445"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="168"/>
+    <n v="135"/>
+    <n v="22680"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="260"/>
+    <n v="95"/>
+    <n v="24700"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="221"/>
+    <n v="85"/>
+    <n v="18785"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="98"/>
+    <n v="135"/>
+    <n v="13230"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="129"/>
+    <n v="95"/>
+    <n v="12255"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="135"/>
+    <n v="6750"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="168"/>
+    <n v="78"/>
+    <n v="13104"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="204"/>
+    <n v="85"/>
+    <n v="17340"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="85"/>
+    <n v="11050"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="85"/>
+    <n v="6715"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="112"/>
+    <n v="11984"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="122"/>
+    <n v="85"/>
+    <n v="10370"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="189"/>
+    <n v="85"/>
+    <n v="16065"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="201"/>
+    <n v="135"/>
+    <n v="27135"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="112"/>
+    <n v="1568"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="242"/>
+    <n v="85"/>
+    <n v="20570"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="180"/>
+    <n v="85"/>
+    <n v="15300"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="95"/>
+    <n v="95"/>
+    <n v="9025"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="196"/>
+    <n v="85"/>
+    <n v="16660"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="37"/>
+    <n v="95"/>
+    <n v="3515"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="257"/>
+    <n v="95"/>
+    <n v="24415"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="94"/>
+    <n v="95"/>
+    <n v="8930"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="172"/>
+    <n v="95"/>
+    <n v="16340"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="48"/>
+    <n v="112"/>
+    <n v="5376"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="194"/>
+    <n v="78"/>
+    <n v="15132"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="24"/>
+    <n v="78"/>
+    <n v="1872"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="112"/>
+    <n v="78"/>
+    <n v="8736"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="34"/>
+    <n v="78"/>
+    <n v="2652"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="182"/>
+    <n v="135"/>
+    <n v="24570"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Perdida"/>
+    <s v="Prazo"/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-12T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="123"/>
+    <n v="78"/>
+    <n v="9594"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="95"/>
+    <n v="7125"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="267"/>
+    <n v="95"/>
+    <n v="25365"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="298"/>
+    <n v="78"/>
+    <n v="23244"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="234"/>
+    <n v="135"/>
+    <n v="31590"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="118"/>
+    <n v="85"/>
+    <n v="10030"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="299"/>
+    <n v="95"/>
+    <n v="28405"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="174"/>
+    <n v="78"/>
+    <n v="13572"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="296"/>
+    <n v="135"/>
+    <n v="39960"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-03T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="142"/>
+    <n v="85"/>
+    <n v="12070"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="135"/>
+    <n v="9315"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="167"/>
+    <n v="135"/>
+    <n v="22545"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="170"/>
+    <n v="112"/>
+    <n v="19040"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="209"/>
+    <n v="112"/>
+    <n v="23408"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="63"/>
+    <n v="112"/>
+    <n v="7056"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="234"/>
+    <n v="135"/>
+    <n v="31590"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="161"/>
+    <n v="112"/>
+    <n v="18032"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="95"/>
+    <n v="7695"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="78"/>
+    <n v="5304"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="179"/>
+    <n v="85"/>
+    <n v="15215"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="85"/>
+    <n v="1445"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="70"/>
+    <n v="95"/>
+    <n v="6650"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="197"/>
+    <n v="85"/>
+    <n v="16745"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="78"/>
+    <n v="3042"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="266"/>
+    <n v="112"/>
+    <n v="29792"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-31T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="253"/>
+    <n v="95"/>
+    <n v="24035"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-09T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="78"/>
+    <n v="4290"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="295"/>
+    <n v="85"/>
+    <n v="25075"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="171"/>
+    <n v="112"/>
+    <n v="19152"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="273"/>
+    <n v="95"/>
+    <n v="25935"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="298"/>
+    <n v="78"/>
+    <n v="23244"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="236"/>
+    <n v="112"/>
+    <n v="26432"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="90"/>
+    <n v="85"/>
+    <n v="7650"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="75"/>
+    <n v="95"/>
+    <n v="7125"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-17T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="85"/>
+    <n v="7395"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="204"/>
+    <n v="85"/>
+    <n v="17340"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="85"/>
+    <n v="5100"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-29T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="284"/>
+    <n v="85"/>
+    <n v="24140"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-28T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="178"/>
+    <n v="78"/>
+    <n v="13884"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34"/>
+    <n v="85"/>
+    <n v="2890"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-18T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="27"/>
+    <n v="78"/>
+    <n v="2106"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="148"/>
+    <n v="85"/>
+    <n v="12580"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="57"/>
+    <n v="135"/>
+    <n v="7695"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="275"/>
+    <n v="85"/>
+    <n v="23375"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-22T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="285"/>
+    <n v="78"/>
+    <n v="22230"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="78"/>
+    <n v="10920"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-23T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="78"/>
+    <n v="112"/>
+    <n v="8736"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="78"/>
+    <n v="1326"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="78"/>
+    <n v="10140"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-08T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="134"/>
+    <n v="85"/>
+    <n v="11390"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-14T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="112"/>
+    <n v="8400"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="48"/>
+    <n v="135"/>
+    <n v="6480"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="22"/>
+    <n v="112"/>
+    <n v="2464"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="300"/>
+    <n v="95"/>
+    <n v="28500"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-16T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="55"/>
+    <n v="112"/>
+    <n v="6160"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-20T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="124"/>
+    <n v="135"/>
+    <n v="16740"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="190"/>
+    <n v="85"/>
+    <n v="16150"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="179"/>
+    <n v="112"/>
+    <n v="20048"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="85"/>
+    <n v="21760"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="127"/>
+    <n v="112"/>
+    <n v="14224"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="177"/>
+    <n v="112"/>
+    <n v="19824"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-15T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="31"/>
+    <n v="85"/>
+    <n v="2635"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-05T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="135"/>
+    <n v="13095"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="112"/>
+    <n v="85"/>
+    <n v="9520"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="178"/>
+    <n v="95"/>
+    <n v="16910"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="137"/>
+    <n v="135"/>
+    <n v="18495"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="118"/>
+    <n v="135"/>
+    <n v="15930"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-30T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="36"/>
+    <n v="85"/>
+    <n v="3060"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-21T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="254"/>
+    <n v="78"/>
+    <n v="19812"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="117"/>
+    <n v="85"/>
+    <n v="9945"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="34"/>
+    <n v="78"/>
+    <n v="2652"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-04T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="78"/>
+    <n v="6474"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-25T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="112"/>
+    <n v="3584"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="263"/>
+    <n v="85"/>
+    <n v="22355"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="178"/>
+    <n v="78"/>
+    <n v="13884"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-19T00:00:00"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="280"/>
+    <n v="78"/>
+    <n v="21840"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="112"/>
+    <n v="0"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Perdida"/>
+    <s v="Prazo"/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-27T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="215"/>
+    <n v="85"/>
+    <n v="18275"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-02T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="81"/>
+    <n v="112"/>
+    <n v="9072"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-13T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="75"/>
+    <n v="112"/>
+    <n v="8400"/>
+    <n v="72.8"/>
+    <x v="4"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-06T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="126"/>
+    <n v="78"/>
+    <n v="9828"/>
+    <n v="50.7"/>
+    <x v="3"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="160"/>
+    <n v="95"/>
+    <n v="15200"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="135"/>
+    <n v="95"/>
+    <n v="12825"/>
+    <n v="61.75"/>
+    <x v="0"/>
+    <n v="0.35"/>
+    <s v="FarmaLife"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-26T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="136"/>
+    <n v="135"/>
+    <n v="18360"/>
+    <n v="87.75"/>
+    <x v="1"/>
+    <n v="0.35"/>
+    <s v="SanisMed"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+  <r>
+    <d v="2025-01-11T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="85"/>
+    <n v="1275"/>
+    <n v="55.25"/>
+    <x v="2"/>
+    <n v="0.35"/>
+    <s v="NeoQuim"/>
+    <s v="Ganha"/>
+    <m/>
+    <n v="-1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEC39FD6-BCBA-411D-BB55-004582FB0D4D}" name="pivot_margem_regiao" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:E19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Soma de margem_abs" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Soma de receita" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Soma de unidades_vendidas" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Média de margem_pct" fld="9" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0E7460E-84CB-4392-BB3C-2B5276F798E8}" name="pivot_margem_produto" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Soma de margem_abs" fld="8" baseField="1" baseItem="0"/>
+    <dataField name="Média de margem_pct" fld="9" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3AA041D-ADE0-4833-A249-9FDE7906162A}" name="tbl_vendas_bionova" displayName="tbl_vendas_bionova" ref="A1:N501" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N501" xr:uid="{E3AA041D-ADE0-4833-A249-9FDE7906162A}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{61D3B028-9FB2-4DC6-842F-59566D9B00CF}" name="data" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9A8A3E81-4C21-4C0B-BC5C-07201D8BE4CD}" name="produto" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{ED055B2E-08AB-4969-AAE7-24C34197E51A}" name="canal" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B8121FF8-8D98-45E0-8992-B3EBFCE290F4}" name="regiao" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0A5224B6-CD0C-4DCF-8521-AC624D4BAADF}" name="unidades_vendidas" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C9CF9B84-97BA-4F8F-848E-507901B3C2A9}" name="preco_unitario" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{DC86973A-30A7-4DED-A42C-ABF8D0BB5FD0}" name="receita" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BA0A3DDF-D069-4B31-8365-1330B60345D6}" name="custo_unitario" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3E73BA72-E6A3-4740-A901-60FABC912D37}" name="margem_abs" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{6DC46CD9-CFBA-4927-B929-8D4E9C250C0E}" name="margem_pct" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{71B07E7F-EA6B-4E59-87DA-F80A404729E7}" name="concorrente_principal" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{7400233B-1516-43F9-8F5E-3332B67521B9}" name="status" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{EC735705-EEE4-4075-A9A6-4C274EA39B87}" name="motivo_loss" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{8D72CE95-DC53-4F41-93A2-4FF8EB7AFA03}" name="elasticidade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,21 +9360,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="9" width="13.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="13" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="20.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -21552,5 +29942,234 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC7A89-B18A-4276-93DD-0D16BC7EC762}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4351.1999999999916</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.3500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3874.5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.35000000000000053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2511.6000000000008</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.35000000000000059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2992.5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.35000000000000059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3718.75</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.35000000000000081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8">
+        <v>17448.549999999923</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.34999999999999676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2962.0500000000011</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1193914</v>
+      </c>
+      <c r="D14" s="8">
+        <v>12601</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.35000000000000059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3115.0000000000005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1310844</v>
+      </c>
+      <c r="D15" s="8">
+        <v>13190</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.35000000000000059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4409.3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1688138</v>
+      </c>
+      <c r="D16" s="8">
+        <v>16662</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.35000000000000081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3711.0499999999993</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1351544</v>
+      </c>
+      <c r="D17" s="8">
+        <v>13645</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.3500000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3251.1499999999996</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1434829</v>
+      </c>
+      <c r="D18" s="8">
+        <v>14210</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.35000000000000059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17448.550000000014</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6979269</v>
+      </c>
+      <c r="D19" s="8">
+        <v>70308</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.34999999999999676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>